--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Bambi</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H2">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I2">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J2">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7083253543498</v>
+        <v>2.821750333333334</v>
       </c>
       <c r="N2">
-        <v>2.7083253543498</v>
+        <v>8.465251</v>
       </c>
       <c r="O2">
-        <v>0.3344272171671982</v>
+        <v>0.3192929084413148</v>
       </c>
       <c r="P2">
-        <v>0.3344272171671982</v>
+        <v>0.3317936578219594</v>
       </c>
       <c r="Q2">
-        <v>8.592931400744872</v>
+        <v>0.7085866567053334</v>
       </c>
       <c r="R2">
-        <v>8.592931400744872</v>
+        <v>6.377279910348</v>
       </c>
       <c r="S2">
-        <v>0.135166914768084</v>
+        <v>0.007981249236252473</v>
       </c>
       <c r="T2">
-        <v>0.135166914768084</v>
+        <v>0.0102511235885817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H3">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I3">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J3">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.657919433137747</v>
+        <v>0.834655</v>
       </c>
       <c r="N3">
-        <v>0.657919433137747</v>
+        <v>2.503965</v>
       </c>
       <c r="O3">
-        <v>0.08124066954920929</v>
+        <v>0.09444472083406114</v>
       </c>
       <c r="P3">
-        <v>0.08124066954920929</v>
+        <v>0.0981423594419306</v>
       </c>
       <c r="Q3">
-        <v>2.087436262814466</v>
+        <v>0.20959522498</v>
       </c>
       <c r="R3">
-        <v>2.087436262814466</v>
+        <v>1.88635702482</v>
       </c>
       <c r="S3">
-        <v>0.0328353976380159</v>
+        <v>0.002360800494143992</v>
       </c>
       <c r="T3">
-        <v>0.0328353976380159</v>
+        <v>0.003032214245801214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H4">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I4">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J4">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.33450763381727</v>
+        <v>1.543255</v>
       </c>
       <c r="N4">
-        <v>1.33450763381727</v>
+        <v>4.629765</v>
       </c>
       <c r="O4">
-        <v>0.1647865805890357</v>
+        <v>0.1746257886800762</v>
       </c>
       <c r="P4">
-        <v>0.1647865805890357</v>
+        <v>0.1814626245820808</v>
       </c>
       <c r="Q4">
-        <v>4.234104492927576</v>
+        <v>0.38753602258</v>
       </c>
       <c r="R4">
-        <v>4.234104492927576</v>
+        <v>3.48782420322</v>
       </c>
       <c r="S4">
-        <v>0.0666025148373805</v>
+        <v>0.004365057618525243</v>
       </c>
       <c r="T4">
-        <v>0.0666025148373805</v>
+        <v>0.005606483871664283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H5">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I5">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J5">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.40224701330251</v>
+        <v>2.638945333333333</v>
       </c>
       <c r="N5">
-        <v>2.40224701330251</v>
+        <v>7.916836</v>
       </c>
       <c r="O5">
-        <v>0.2966323016976821</v>
+        <v>0.2986077544650365</v>
       </c>
       <c r="P5">
-        <v>0.2966323016976821</v>
+        <v>0.310298652079728</v>
       </c>
       <c r="Q5">
-        <v>7.621810931910144</v>
+        <v>0.6626813963253334</v>
       </c>
       <c r="R5">
-        <v>7.621810931910144</v>
+        <v>5.964132566928</v>
       </c>
       <c r="S5">
-        <v>0.1198911780585896</v>
+        <v>0.007464189931112034</v>
       </c>
       <c r="T5">
-        <v>0.1198911780585896</v>
+        <v>0.009587012159064483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H6">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I6">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J6">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.995400502129168</v>
+        <v>0.9988920000000001</v>
       </c>
       <c r="N6">
-        <v>0.995400502129168</v>
+        <v>1.997784</v>
       </c>
       <c r="O6">
-        <v>0.1229132309968747</v>
+        <v>0.1130288275795113</v>
       </c>
       <c r="P6">
-        <v>0.1229132309968747</v>
+        <v>0.07830270607430133</v>
       </c>
       <c r="Q6">
-        <v>3.158190805002597</v>
+        <v>0.250837763472</v>
       </c>
       <c r="R6">
-        <v>3.158190805002597</v>
+        <v>1.505026580832</v>
       </c>
       <c r="S6">
-        <v>0.04967837952530713</v>
+        <v>0.002825340682313627</v>
       </c>
       <c r="T6">
-        <v>0.04967837952530713</v>
+        <v>0.002419246716640901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H7">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I7">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J7">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.7083253543498</v>
+        <v>2.821750333333334</v>
       </c>
       <c r="N7">
-        <v>2.7083253543498</v>
+        <v>8.465251</v>
       </c>
       <c r="O7">
-        <v>0.3344272171671982</v>
+        <v>0.3192929084413148</v>
       </c>
       <c r="P7">
-        <v>0.3344272171671982</v>
+        <v>0.3317936578219594</v>
       </c>
       <c r="Q7">
-        <v>12.66752379711462</v>
+        <v>10.55225140753733</v>
       </c>
       <c r="R7">
-        <v>12.66752379711462</v>
+        <v>94.970262667836</v>
       </c>
       <c r="S7">
-        <v>0.1992603023991142</v>
+        <v>0.1188565261428208</v>
       </c>
       <c r="T7">
-        <v>0.1992603023991142</v>
+        <v>0.1526594274572038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H8">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I8">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J8">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.657919433137747</v>
+        <v>0.834655</v>
       </c>
       <c r="N8">
-        <v>0.657919433137747</v>
+        <v>2.503965</v>
       </c>
       <c r="O8">
-        <v>0.08124066954920929</v>
+        <v>0.09444472083406114</v>
       </c>
       <c r="P8">
-        <v>0.08124066954920929</v>
+        <v>0.0981423594419306</v>
       </c>
       <c r="Q8">
-        <v>3.077255863100466</v>
+        <v>3.12128585386</v>
       </c>
       <c r="R8">
-        <v>3.077255863100466</v>
+        <v>28.09157268474</v>
       </c>
       <c r="S8">
-        <v>0.0484052719111934</v>
+        <v>0.03515697071276543</v>
       </c>
       <c r="T8">
-        <v>0.0484052719111934</v>
+        <v>0.0451556443244125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H9">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I9">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J9">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.33450763381727</v>
+        <v>1.543255</v>
       </c>
       <c r="N9">
-        <v>1.33450763381727</v>
+        <v>4.629765</v>
       </c>
       <c r="O9">
-        <v>0.1647865805890357</v>
+        <v>0.1746257886800762</v>
       </c>
       <c r="P9">
-        <v>0.1647865805890357</v>
+        <v>0.1814626245820808</v>
       </c>
       <c r="Q9">
-        <v>6.241830281454432</v>
+        <v>5.77117491706</v>
       </c>
       <c r="R9">
-        <v>6.241830281454432</v>
+        <v>51.94057425354</v>
       </c>
       <c r="S9">
-        <v>0.09818406575165517</v>
+        <v>0.06500430817203372</v>
       </c>
       <c r="T9">
-        <v>0.09818406575165517</v>
+        <v>0.08349159099492749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H10">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I10">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J10">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.40224701330251</v>
+        <v>2.638945333333333</v>
       </c>
       <c r="N10">
-        <v>2.40224701330251</v>
+        <v>7.916836</v>
       </c>
       <c r="O10">
-        <v>0.2966323016976821</v>
+        <v>0.2986077544650365</v>
       </c>
       <c r="P10">
-        <v>0.2966323016976821</v>
+        <v>0.310298652079728</v>
       </c>
       <c r="Q10">
-        <v>11.23591785554238</v>
+        <v>9.868631635877334</v>
       </c>
       <c r="R10">
-        <v>11.23591785554238</v>
+        <v>88.81768472289599</v>
       </c>
       <c r="S10">
-        <v>0.1767411236390925</v>
+        <v>0.1111564943558584</v>
       </c>
       <c r="T10">
-        <v>0.1767411236390925</v>
+        <v>0.1427694998095838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.739612</v>
+      </c>
+      <c r="H11">
+        <v>11.218836</v>
+      </c>
+      <c r="I11">
+        <v>0.3722491887559923</v>
+      </c>
+      <c r="J11">
+        <v>0.4601035127052395</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9988920000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.997784</v>
+      </c>
+      <c r="O11">
+        <v>0.1130288275795113</v>
+      </c>
+      <c r="P11">
+        <v>0.07830270607430133</v>
+      </c>
+      <c r="Q11">
+        <v>3.735468509904</v>
+      </c>
+      <c r="R11">
+        <v>22.412811059424</v>
+      </c>
+      <c r="S11">
+        <v>0.04207488937251401</v>
+      </c>
+      <c r="T11">
+        <v>0.03602735011911194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.127217</v>
+      </c>
+      <c r="I12">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J12">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.821750333333334</v>
+      </c>
+      <c r="N12">
+        <v>8.465251</v>
+      </c>
+      <c r="O12">
+        <v>0.3192929084413148</v>
+      </c>
+      <c r="P12">
+        <v>0.3317936578219594</v>
+      </c>
+      <c r="Q12">
+        <v>0.1196582040518889</v>
+      </c>
+      <c r="R12">
+        <v>1.076923836467</v>
+      </c>
+      <c r="S12">
+        <v>0.001347784269804036</v>
+      </c>
+      <c r="T12">
+        <v>0.001731095309961131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.127217</v>
+      </c>
+      <c r="I13">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J13">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.834655</v>
+      </c>
+      <c r="N13">
+        <v>2.503965</v>
+      </c>
+      <c r="O13">
+        <v>0.09444472083406114</v>
+      </c>
+      <c r="P13">
+        <v>0.0981423594419306</v>
+      </c>
+      <c r="Q13">
+        <v>0.03539410171166667</v>
+      </c>
+      <c r="R13">
+        <v>0.318546915405</v>
+      </c>
+      <c r="S13">
+        <v>0.0003986656319038695</v>
+      </c>
+      <c r="T13">
+        <v>0.0005120464907427815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.127217</v>
+      </c>
+      <c r="I14">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J14">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.543255</v>
+      </c>
+      <c r="N14">
+        <v>4.629765</v>
+      </c>
+      <c r="O14">
+        <v>0.1746257886800762</v>
+      </c>
+      <c r="P14">
+        <v>0.1814626245820808</v>
+      </c>
+      <c r="Q14">
+        <v>0.06544275711166667</v>
+      </c>
+      <c r="R14">
+        <v>0.588984814005</v>
+      </c>
+      <c r="S14">
+        <v>0.0007371221999075139</v>
+      </c>
+      <c r="T14">
+        <v>0.0009467604064808231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.127217</v>
+      </c>
+      <c r="I15">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J15">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.638945333333333</v>
+      </c>
+      <c r="N15">
+        <v>7.916836</v>
+      </c>
+      <c r="O15">
+        <v>0.2986077544650365</v>
+      </c>
+      <c r="P15">
+        <v>0.310298652079728</v>
+      </c>
+      <c r="Q15">
+        <v>0.1119062361568889</v>
+      </c>
+      <c r="R15">
+        <v>1.007156125412</v>
+      </c>
+      <c r="S15">
+        <v>0.001260469066707922</v>
+      </c>
+      <c r="T15">
+        <v>0.001618947585763427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.127217</v>
+      </c>
+      <c r="I16">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J16">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9988920000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.997784</v>
+      </c>
+      <c r="O16">
+        <v>0.1130288275795113</v>
+      </c>
+      <c r="P16">
+        <v>0.07830270607430133</v>
+      </c>
+      <c r="Q16">
+        <v>0.04235868118800001</v>
+      </c>
+      <c r="R16">
+        <v>0.254152087128</v>
+      </c>
+      <c r="S16">
+        <v>0.00047711199283982</v>
+      </c>
+      <c r="T16">
+        <v>0.0004085353774761538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.774514</v>
+      </c>
+      <c r="I17">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J17">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.821750333333334</v>
+      </c>
+      <c r="N17">
+        <v>8.465251</v>
+      </c>
+      <c r="O17">
+        <v>0.3192929084413148</v>
+      </c>
+      <c r="P17">
+        <v>0.3317936578219594</v>
+      </c>
+      <c r="Q17">
+        <v>0.7284950458904446</v>
+      </c>
+      <c r="R17">
+        <v>6.556455413014</v>
+      </c>
+      <c r="S17">
+        <v>0.008205489721837515</v>
+      </c>
+      <c r="T17">
+        <v>0.01053913826689228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.67725333544934</v>
-      </c>
-      <c r="H11">
-        <v>4.67725333544934</v>
-      </c>
-      <c r="I11">
-        <v>0.5958256151726229</v>
-      </c>
-      <c r="J11">
-        <v>0.5958256151726229</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.995400502129168</v>
-      </c>
-      <c r="N11">
-        <v>0.995400502129168</v>
-      </c>
-      <c r="O11">
-        <v>0.1229132309968747</v>
-      </c>
-      <c r="P11">
-        <v>0.1229132309968747</v>
-      </c>
-      <c r="Q11">
-        <v>4.655740318691598</v>
-      </c>
-      <c r="R11">
-        <v>4.655740318691598</v>
-      </c>
-      <c r="S11">
-        <v>0.07323485147156755</v>
-      </c>
-      <c r="T11">
-        <v>0.07323485147156755</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.774514</v>
+      </c>
+      <c r="I18">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J18">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.834655</v>
+      </c>
+      <c r="N18">
+        <v>2.503965</v>
+      </c>
+      <c r="O18">
+        <v>0.09444472083406114</v>
+      </c>
+      <c r="P18">
+        <v>0.0981423594419306</v>
+      </c>
+      <c r="Q18">
+        <v>0.2154839942233334</v>
+      </c>
+      <c r="R18">
+        <v>1.93935594801</v>
+      </c>
+      <c r="S18">
+        <v>0.002427129339855472</v>
+      </c>
+      <c r="T18">
+        <v>0.003117407073985039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.774514</v>
+      </c>
+      <c r="I19">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J19">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.543255</v>
+      </c>
+      <c r="N19">
+        <v>4.629765</v>
+      </c>
+      <c r="O19">
+        <v>0.1746257886800762</v>
+      </c>
+      <c r="P19">
+        <v>0.1814626245820808</v>
+      </c>
+      <c r="Q19">
+        <v>0.3984242010233334</v>
+      </c>
+      <c r="R19">
+        <v>3.58581780921</v>
+      </c>
+      <c r="S19">
+        <v>0.004487697898387545</v>
+      </c>
+      <c r="T19">
+        <v>0.005764003155750319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.774514</v>
+      </c>
+      <c r="I20">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J20">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.638945333333333</v>
+      </c>
+      <c r="N20">
+        <v>7.916836</v>
+      </c>
+      <c r="O20">
+        <v>0.2986077544650365</v>
+      </c>
+      <c r="P20">
+        <v>0.310298652079728</v>
+      </c>
+      <c r="Q20">
+        <v>0.6813000353004446</v>
+      </c>
+      <c r="R20">
+        <v>6.131700317704</v>
+      </c>
+      <c r="S20">
+        <v>0.007673903163352537</v>
+      </c>
+      <c r="T20">
+        <v>0.009856368020311555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.774514</v>
+      </c>
+      <c r="I21">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J21">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9988920000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.997784</v>
+      </c>
+      <c r="O21">
+        <v>0.1130288275795113</v>
+      </c>
+      <c r="P21">
+        <v>0.07830270607430133</v>
+      </c>
+      <c r="Q21">
+        <v>0.257885279496</v>
+      </c>
+      <c r="R21">
+        <v>1.547311676976</v>
+      </c>
+      <c r="S21">
+        <v>0.002904721208819107</v>
+      </c>
+      <c r="T21">
+        <v>0.002487217662345172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.754686</v>
+      </c>
+      <c r="H22">
+        <v>11.509372</v>
+      </c>
+      <c r="I22">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J22">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.821750333333334</v>
+      </c>
+      <c r="N22">
+        <v>8.465251</v>
+      </c>
+      <c r="O22">
+        <v>0.3192929084413148</v>
+      </c>
+      <c r="P22">
+        <v>0.3317936578219594</v>
+      </c>
+      <c r="Q22">
+        <v>16.23828713872867</v>
+      </c>
+      <c r="R22">
+        <v>97.42972283237199</v>
+      </c>
+      <c r="S22">
+        <v>0.1829018590706</v>
+      </c>
+      <c r="T22">
+        <v>0.1566128731993205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.754686</v>
+      </c>
+      <c r="H23">
+        <v>11.509372</v>
+      </c>
+      <c r="I23">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J23">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.834655</v>
+      </c>
+      <c r="N23">
+        <v>2.503965</v>
+      </c>
+      <c r="O23">
+        <v>0.09444472083406114</v>
+      </c>
+      <c r="P23">
+        <v>0.0981423594419306</v>
+      </c>
+      <c r="Q23">
+        <v>4.80317744333</v>
+      </c>
+      <c r="R23">
+        <v>28.81906465998</v>
+      </c>
+      <c r="S23">
+        <v>0.05410115465539238</v>
+      </c>
+      <c r="T23">
+        <v>0.04632504730698907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.754686</v>
+      </c>
+      <c r="H24">
+        <v>11.509372</v>
+      </c>
+      <c r="I24">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J24">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.543255</v>
+      </c>
+      <c r="N24">
+        <v>4.629765</v>
+      </c>
+      <c r="O24">
+        <v>0.1746257886800762</v>
+      </c>
+      <c r="P24">
+        <v>0.1814626245820808</v>
+      </c>
+      <c r="Q24">
+        <v>8.88094794293</v>
+      </c>
+      <c r="R24">
+        <v>53.28568765757999</v>
+      </c>
+      <c r="S24">
+        <v>0.1000316027912222</v>
+      </c>
+      <c r="T24">
+        <v>0.08565378615325785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.754686</v>
+      </c>
+      <c r="H25">
+        <v>11.509372</v>
+      </c>
+      <c r="I25">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J25">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.638945333333333</v>
+      </c>
+      <c r="N25">
+        <v>7.916836</v>
+      </c>
+      <c r="O25">
+        <v>0.2986077544650365</v>
+      </c>
+      <c r="P25">
+        <v>0.310298652079728</v>
+      </c>
+      <c r="Q25">
+        <v>15.18630176449867</v>
+      </c>
+      <c r="R25">
+        <v>91.11781058699199</v>
+      </c>
+      <c r="S25">
+        <v>0.1710526979480056</v>
+      </c>
+      <c r="T25">
+        <v>0.1464668245050047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.754686</v>
+      </c>
+      <c r="H26">
+        <v>11.509372</v>
+      </c>
+      <c r="I26">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J26">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9988920000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.997784</v>
+      </c>
+      <c r="O26">
+        <v>0.1130288275795113</v>
+      </c>
+      <c r="P26">
+        <v>0.07830270607430133</v>
+      </c>
+      <c r="Q26">
+        <v>5.748309807912</v>
+      </c>
+      <c r="R26">
+        <v>22.993239231648</v>
+      </c>
+      <c r="S26">
+        <v>0.06474676432302473</v>
+      </c>
+      <c r="T26">
+        <v>0.03696035619872717</v>
       </c>
     </row>
   </sheetData>
